--- a/BankStatementDetails.xlsx
+++ b/BankStatementDetails.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="51">
   <si>
     <t>Transaction Details for Amount credited in Various Accounts</t>
   </si>
@@ -157,6 +157,18 @@
   </si>
   <si>
     <t>kotak</t>
+  </si>
+  <si>
+    <t>4,80,596.00</t>
+  </si>
+  <si>
+    <t>Total Amount</t>
+  </si>
+  <si>
+    <t>15,00,000.00</t>
+  </si>
+  <si>
+    <t>19,80,596.00</t>
   </si>
 </sst>
 </file>
@@ -286,7 +298,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -306,11 +318,7 @@
     </xf>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -331,6 +339,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -635,15 +652,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:H66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="5" max="5" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="89.7109375" style="20" customWidth="1"/>
+    <col min="6" max="6" width="29.140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="89.7109375" style="18" customWidth="1"/>
     <col min="8" max="8" width="11.85546875" style="7" customWidth="1"/>
   </cols>
   <sheetData>
@@ -658,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="2"/>
-      <c r="G3" s="21"/>
+      <c r="G3" s="19"/>
     </row>
     <row r="4" spans="4:8">
       <c r="D4" s="7" t="s">
@@ -670,7 +687,7 @@
       <c r="F4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="20" t="s">
         <v>4</v>
       </c>
       <c r="H4" s="7" t="s">
@@ -687,7 +704,7 @@
       <c r="F5" s="10">
         <v>18000</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="G5" s="20" t="s">
         <v>7</v>
       </c>
       <c r="H5" s="7" t="s">
@@ -704,7 +721,7 @@
       <c r="F6" s="11">
         <v>20000</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="20" t="s">
         <v>8</v>
       </c>
       <c r="H6" s="7" t="s">
@@ -721,7 +738,7 @@
       <c r="F7" s="10">
         <v>18000</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="20" t="s">
         <v>7</v>
       </c>
       <c r="H7" s="7" t="s">
@@ -738,7 +755,7 @@
       <c r="F8" s="11">
         <v>19500</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="20" t="s">
         <v>9</v>
       </c>
       <c r="H8" s="7" t="s">
@@ -755,7 +772,7 @@
       <c r="F9" s="10">
         <v>19000</v>
       </c>
-      <c r="G9" s="22" t="s">
+      <c r="G9" s="20" t="s">
         <v>10</v>
       </c>
       <c r="H9" s="7" t="s">
@@ -772,7 +789,7 @@
       <c r="F10" s="10">
         <v>18000</v>
       </c>
-      <c r="G10" s="22" t="s">
+      <c r="G10" s="20" t="s">
         <v>11</v>
       </c>
       <c r="H10" s="7" t="s">
@@ -789,7 +806,7 @@
       <c r="F11" s="10">
         <v>20000</v>
       </c>
-      <c r="G11" s="22" t="s">
+      <c r="G11" s="20" t="s">
         <v>12</v>
       </c>
       <c r="H11" s="7" t="s">
@@ -806,7 +823,7 @@
       <c r="F12" s="10">
         <v>20000</v>
       </c>
-      <c r="G12" s="22" t="s">
+      <c r="G12" s="20" t="s">
         <v>13</v>
       </c>
       <c r="H12" s="7" t="s">
@@ -823,7 +840,7 @@
       <c r="F13" s="10">
         <v>17000</v>
       </c>
-      <c r="G13" s="22" t="s">
+      <c r="G13" s="20" t="s">
         <v>18</v>
       </c>
       <c r="H13" s="7" t="s">
@@ -840,7 +857,7 @@
       <c r="F14" s="14">
         <v>20000</v>
       </c>
-      <c r="G14" s="22" t="s">
+      <c r="G14" s="20" t="s">
         <v>18</v>
       </c>
       <c r="H14" s="7" t="s">
@@ -857,7 +874,7 @@
       <c r="F15" s="15">
         <v>14000</v>
       </c>
-      <c r="G15" s="23" t="s">
+      <c r="G15" s="21" t="s">
         <v>18</v>
       </c>
       <c r="H15" s="7" t="s">
@@ -874,7 +891,7 @@
       <c r="F16" s="15">
         <v>10000</v>
       </c>
-      <c r="G16" s="23" t="s">
+      <c r="G16" s="21" t="s">
         <v>18</v>
       </c>
       <c r="H16" s="7" t="s">
@@ -891,7 +908,7 @@
       <c r="F17" s="15">
         <v>20000</v>
       </c>
-      <c r="G17" s="23" t="s">
+      <c r="G17" s="21" t="s">
         <v>19</v>
       </c>
       <c r="H17" s="7" t="s">
@@ -908,7 +925,7 @@
       <c r="F18" s="15">
         <v>19000</v>
       </c>
-      <c r="G18" s="23" t="s">
+      <c r="G18" s="21" t="s">
         <v>20</v>
       </c>
       <c r="H18" s="7" t="s">
@@ -925,7 +942,7 @@
       <c r="F19" s="15">
         <v>18000</v>
       </c>
-      <c r="G19" s="23" t="s">
+      <c r="G19" s="21" t="s">
         <v>21</v>
       </c>
       <c r="H19" s="7" t="s">
@@ -942,7 +959,7 @@
       <c r="F20" s="15">
         <v>18000</v>
       </c>
-      <c r="G20" s="23" t="s">
+      <c r="G20" s="21" t="s">
         <v>22</v>
       </c>
       <c r="H20" s="7" t="s">
@@ -959,7 +976,7 @@
       <c r="F21" s="15">
         <v>18000</v>
       </c>
-      <c r="G21" s="23" t="s">
+      <c r="G21" s="21" t="s">
         <v>23</v>
       </c>
       <c r="H21" s="7" t="s">
@@ -976,7 +993,7 @@
       <c r="F22" s="15">
         <v>20000</v>
       </c>
-      <c r="G22" s="23" t="s">
+      <c r="G22" s="21" t="s">
         <v>24</v>
       </c>
       <c r="H22" s="7" t="s">
@@ -993,7 +1010,7 @@
       <c r="F23" s="15">
         <v>18000</v>
       </c>
-      <c r="G23" s="23" t="s">
+      <c r="G23" s="21" t="s">
         <v>25</v>
       </c>
       <c r="H23" s="7" t="s">
@@ -1010,7 +1027,7 @@
       <c r="F24" s="15">
         <v>20000</v>
       </c>
-      <c r="G24" s="23" t="s">
+      <c r="G24" s="21" t="s">
         <v>26</v>
       </c>
       <c r="H24" s="7" t="s">
@@ -1027,7 +1044,7 @@
       <c r="F25" s="10">
         <v>20000</v>
       </c>
-      <c r="G25" s="23" t="s">
+      <c r="G25" s="21" t="s">
         <v>27</v>
       </c>
       <c r="H25" s="7" t="s">
@@ -1044,7 +1061,7 @@
       <c r="F26" s="10">
         <v>20000</v>
       </c>
-      <c r="G26" s="23" t="s">
+      <c r="G26" s="21" t="s">
         <v>28</v>
       </c>
       <c r="H26" s="7" t="s">
@@ -1061,7 +1078,7 @@
       <c r="F27" s="10">
         <v>20000</v>
       </c>
-      <c r="G27" s="22" t="s">
+      <c r="G27" s="20" t="s">
         <v>17</v>
       </c>
       <c r="H27" s="7" t="s">
@@ -1078,7 +1095,7 @@
       <c r="F28" s="10">
         <v>20000</v>
       </c>
-      <c r="G28" s="22" t="s">
+      <c r="G28" s="20" t="s">
         <v>16</v>
       </c>
       <c r="H28" s="7" t="s">
@@ -1095,7 +1112,7 @@
       <c r="F29" s="10">
         <v>20000</v>
       </c>
-      <c r="G29" s="22" t="s">
+      <c r="G29" s="20" t="s">
         <v>15</v>
       </c>
       <c r="H29" s="7" t="s">
@@ -1112,7 +1129,7 @@
       <c r="F30" s="10">
         <v>20000</v>
       </c>
-      <c r="G30" s="22" t="s">
+      <c r="G30" s="20" t="s">
         <v>14</v>
       </c>
       <c r="H30" s="7" t="s">
@@ -1129,7 +1146,7 @@
       <c r="F31" s="10">
         <v>200000</v>
       </c>
-      <c r="G31" s="22" t="s">
+      <c r="G31" s="20" t="s">
         <v>37</v>
       </c>
       <c r="H31" s="7" t="s">
@@ -1146,7 +1163,7 @@
       <c r="F32" s="10">
         <v>300000</v>
       </c>
-      <c r="G32" s="22" t="s">
+      <c r="G32" s="20" t="s">
         <v>31</v>
       </c>
       <c r="H32" s="7" t="s">
@@ -1163,7 +1180,7 @@
       <c r="F33" s="10">
         <v>300000</v>
       </c>
-      <c r="G33" s="22" t="s">
+      <c r="G33" s="20" t="s">
         <v>32</v>
       </c>
       <c r="H33" s="7" t="s">
@@ -1180,7 +1197,7 @@
       <c r="F34" s="10">
         <v>80000</v>
       </c>
-      <c r="G34" s="22" t="s">
+      <c r="G34" s="20" t="s">
         <v>33</v>
       </c>
       <c r="H34" s="7" t="s">
@@ -1197,7 +1214,7 @@
       <c r="F35" s="10">
         <v>200000</v>
       </c>
-      <c r="G35" s="22" t="s">
+      <c r="G35" s="20" t="s">
         <v>35</v>
       </c>
       <c r="H35" s="7" t="s">
@@ -1214,7 +1231,7 @@
       <c r="F36" s="10">
         <v>200000</v>
       </c>
-      <c r="G36" s="22" t="s">
+      <c r="G36" s="20" t="s">
         <v>34</v>
       </c>
       <c r="H36" s="7" t="s">
@@ -1231,7 +1248,7 @@
       <c r="F37" s="10">
         <v>7300</v>
       </c>
-      <c r="G37" s="22" t="s">
+      <c r="G37" s="20" t="s">
         <v>38</v>
       </c>
       <c r="H37" s="7" t="s">
@@ -1248,7 +1265,7 @@
       <c r="F38" s="10">
         <v>2000</v>
       </c>
-      <c r="G38" s="22" t="s">
+      <c r="G38" s="20" t="s">
         <v>18</v>
       </c>
       <c r="H38" s="7" t="s">
@@ -1265,7 +1282,7 @@
       <c r="F39" s="10">
         <v>10000</v>
       </c>
-      <c r="G39" s="22" t="str">
+      <c r="G39" s="20" t="str">
         <f>"CASH DEPOSIT AT 0693 BY SELF"</f>
         <v>CASH DEPOSIT AT 0693 BY SELF</v>
       </c>
@@ -1283,7 +1300,7 @@
       <c r="F40" s="10">
         <v>200000</v>
       </c>
-      <c r="G40" s="24" t="str">
+      <c r="G40" s="22" t="str">
         <f>"FUND TR. FROM  CH-2 ULLHAS UTAMSA SAHUJI"</f>
         <v>FUND TR. FROM  CH-2 ULLHAS UTAMSA SAHUJI</v>
       </c>
@@ -1292,12 +1309,18 @@
       </c>
     </row>
     <row r="41" spans="3:8" s="4" customFormat="1">
-      <c r="F41" s="6"/>
-      <c r="G41" s="25"/>
+      <c r="E41" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F41" s="6">
+        <f>SUM(F5:F40)</f>
+        <v>1983800</v>
+      </c>
+      <c r="G41" s="23"/>
     </row>
     <row r="42" spans="3:8" s="4" customFormat="1">
       <c r="F42" s="5"/>
-      <c r="G42" s="25" t="s">
+      <c r="G42" s="23" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1312,7 +1335,7 @@
       <c r="F43" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G43" s="24" t="s">
+      <c r="G43" s="22" t="s">
         <v>41</v>
       </c>
       <c r="H43" s="7" t="s">
@@ -1327,13 +1350,13 @@
       <c r="E44" s="13">
         <v>43377</v>
       </c>
-      <c r="F44" s="17">
-        <v>480596</v>
-      </c>
-      <c r="G44" s="24" t="s">
+      <c r="F44" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="G44" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="H44" s="18" t="s">
+      <c r="H44" s="17" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1345,29 +1368,33 @@
       <c r="E45" s="13">
         <v>43388</v>
       </c>
-      <c r="F45" s="19">
-        <v>1500000</v>
-      </c>
-      <c r="G45" s="26" t="s">
+      <c r="F45" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="G45" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="H45" s="18" t="s">
+      <c r="H45" s="17" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="46" spans="3:8">
       <c r="C46" s="4"/>
       <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="24"/>
+      <c r="E46" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F46" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="G46" s="22"/>
     </row>
     <row r="47" spans="3:8">
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="5"/>
-      <c r="G47" s="25"/>
+      <c r="G47" s="23"/>
       <c r="H47" s="4"/>
     </row>
     <row r="48" spans="3:8">
@@ -1375,7 +1402,7 @@
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="F48" s="5"/>
-      <c r="G48" s="25"/>
+      <c r="G48" s="23"/>
       <c r="H48" s="4"/>
     </row>
     <row r="49" spans="3:8">
@@ -1383,7 +1410,7 @@
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="F49" s="5"/>
-      <c r="G49" s="25"/>
+      <c r="G49" s="23"/>
       <c r="H49" s="4"/>
     </row>
     <row r="50" spans="3:8">
@@ -1391,7 +1418,7 @@
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="F50" s="5"/>
-      <c r="G50" s="25"/>
+      <c r="G50" s="23"/>
       <c r="H50" s="4"/>
     </row>
     <row r="51" spans="3:8">
@@ -1399,7 +1426,7 @@
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="F51" s="5"/>
-      <c r="G51" s="25"/>
+      <c r="G51" s="23"/>
       <c r="H51" s="4"/>
     </row>
     <row r="52" spans="3:8">
@@ -1407,7 +1434,7 @@
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
       <c r="F52" s="5"/>
-      <c r="G52" s="25"/>
+      <c r="G52" s="23"/>
       <c r="H52" s="4"/>
     </row>
     <row r="53" spans="3:8">
@@ -1415,7 +1442,7 @@
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="F53" s="5"/>
-      <c r="G53" s="25"/>
+      <c r="G53" s="23"/>
       <c r="H53" s="4"/>
     </row>
     <row r="54" spans="3:8">
@@ -1423,7 +1450,7 @@
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="F54" s="5"/>
-      <c r="G54" s="25"/>
+      <c r="G54" s="23"/>
       <c r="H54" s="4"/>
     </row>
     <row r="55" spans="3:8">
@@ -1431,7 +1458,7 @@
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="F55" s="5"/>
-      <c r="G55" s="25"/>
+      <c r="G55" s="23"/>
       <c r="H55" s="4"/>
     </row>
     <row r="56" spans="3:8">
@@ -1439,7 +1466,7 @@
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
       <c r="F56" s="5"/>
-      <c r="G56" s="25"/>
+      <c r="G56" s="23"/>
       <c r="H56" s="4"/>
     </row>
     <row r="57" spans="3:8">
@@ -1447,7 +1474,7 @@
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
       <c r="F57" s="5"/>
-      <c r="G57" s="25"/>
+      <c r="G57" s="23"/>
       <c r="H57" s="4"/>
     </row>
     <row r="58" spans="3:8">
@@ -1455,7 +1482,7 @@
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
       <c r="F58" s="5"/>
-      <c r="G58" s="25"/>
+      <c r="G58" s="23"/>
       <c r="H58" s="4"/>
     </row>
     <row r="59" spans="3:8">
@@ -1463,7 +1490,7 @@
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
       <c r="F59" s="5"/>
-      <c r="G59" s="25"/>
+      <c r="G59" s="23"/>
       <c r="H59" s="4"/>
     </row>
     <row r="60" spans="3:8">
@@ -1471,7 +1498,7 @@
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
       <c r="F60" s="5"/>
-      <c r="G60" s="25"/>
+      <c r="G60" s="23"/>
       <c r="H60" s="4"/>
     </row>
     <row r="61" spans="3:8">
@@ -1479,7 +1506,7 @@
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
       <c r="F61" s="5"/>
-      <c r="G61" s="25"/>
+      <c r="G61" s="23"/>
       <c r="H61" s="4"/>
     </row>
     <row r="62" spans="3:8">
@@ -1487,7 +1514,7 @@
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
       <c r="F62" s="5"/>
-      <c r="G62" s="25"/>
+      <c r="G62" s="23"/>
       <c r="H62" s="4"/>
     </row>
     <row r="63" spans="3:8">
@@ -1495,7 +1522,7 @@
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
       <c r="F63" s="5"/>
-      <c r="G63" s="25"/>
+      <c r="G63" s="23"/>
       <c r="H63" s="4"/>
     </row>
     <row r="64" spans="3:8">
@@ -1503,7 +1530,7 @@
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
       <c r="F64" s="5"/>
-      <c r="G64" s="25"/>
+      <c r="G64" s="23"/>
       <c r="H64" s="4"/>
     </row>
     <row r="65" spans="3:8">
@@ -1511,7 +1538,7 @@
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
       <c r="F65" s="5"/>
-      <c r="G65" s="25"/>
+      <c r="G65" s="23"/>
       <c r="H65" s="4"/>
     </row>
     <row r="66" spans="3:8">
@@ -1519,7 +1546,7 @@
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
       <c r="F66" s="5"/>
-      <c r="G66" s="25"/>
+      <c r="G66" s="23"/>
       <c r="H66" s="4"/>
     </row>
   </sheetData>
